--- a/DairyExpenses.xlsx
+++ b/DairyExpenses.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="1" r:id="rId1"/>
     <sheet name="June 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="August" sheetId="3" r:id="rId3"/>
+    <sheet name="September 2018" sheetId="4" r:id="rId4"/>
+    <sheet name="October 2018" sheetId="5" r:id="rId5"/>
+    <sheet name="November 2018" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Credit</t>
   </si>
@@ -159,6 +163,66 @@
   </si>
   <si>
     <t>Rice(25kg)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Thirumala</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>6 to 31</t>
+  </si>
+  <si>
+    <t>Aavin</t>
+  </si>
+  <si>
+    <t>20 to 31</t>
+  </si>
+  <si>
+    <t>1 to 20</t>
+  </si>
+  <si>
+    <t>22 to 31</t>
+  </si>
+  <si>
+    <t>1 to 15</t>
+  </si>
+  <si>
+    <t>Tirumala</t>
+  </si>
+  <si>
+    <t>1 to 10</t>
+  </si>
+  <si>
+    <t>11 to 20</t>
+  </si>
+  <si>
+    <t>16 to 30</t>
+  </si>
+  <si>
+    <t>20 to 30</t>
+  </si>
+  <si>
+    <t>To Raja</t>
+  </si>
+  <si>
+    <t>17 to 31</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>25 to 30</t>
+  </si>
+  <si>
+    <t>Mahendran - half litres/day</t>
   </si>
 </sst>
 </file>
@@ -200,9 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1011,4 +1076,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>1481.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>6042.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>6334.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>8700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>8716.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DairyExpenses.xlsx
+++ b/DairyExpenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="September 2018" sheetId="4" r:id="rId4"/>
     <sheet name="October 2018" sheetId="5" r:id="rId5"/>
     <sheet name="November 2018" sheetId="6" r:id="rId6"/>
+    <sheet name="December 2018" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Credit</t>
   </si>
@@ -216,13 +218,22 @@
     <t>Raja</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>25 to 30</t>
   </si>
   <si>
     <t>Mahendran - half litres/day</t>
+  </si>
+  <si>
+    <t>15 to 30</t>
+  </si>
+  <si>
+    <t>Got together bill (Nov 2nd half and Dec 1st half)</t>
+  </si>
+  <si>
+    <t>Raja gave --&gt;</t>
+  </si>
+  <si>
+    <t>Lourdu Advance</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1210,12 +1221,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1287,38 +1298,113 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>6198.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>8716.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>7534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>6198.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>

--- a/DairyExpenses.xlsx
+++ b/DairyExpenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,11 @@
     <sheet name="December 2018" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Credit</t>
   </si>
@@ -234,6 +233,9 @@
   </si>
   <si>
     <t>Lourdu Advance</t>
+  </si>
+  <si>
+    <t>15 to 31</t>
   </si>
 </sst>
 </file>
@@ -1358,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1409,14 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>15490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DairyExpenses.xlsx
+++ b/DairyExpenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="May 2018" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="October 2018" sheetId="5" r:id="rId5"/>
     <sheet name="November 2018" sheetId="6" r:id="rId6"/>
     <sheet name="December 2018" sheetId="7" r:id="rId7"/>
+    <sheet name="2019" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Credit</t>
   </si>
@@ -236,12 +237,18 @@
   </si>
   <si>
     <t>15 to 31</t>
+  </si>
+  <si>
+    <t>Mahesh Amma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,10 +284,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1420,4 +1430,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43405</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43480</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43497</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43511</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43525</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43525</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43539</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43556</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43570</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>43678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>